--- a/diğerhizmetlerma.xlsx
+++ b/diğerhizmetlerma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>311.8985272119349</v>
+        <v>312.97286131664697</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>313.819298970334</v>
+        <v>314.4677763181824</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>315.59345886644314</v>
+        <v>316.0176559501009</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>318.03305724007834</v>
+        <v>317.42025381803415</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>320.0235022884288</v>
+        <v>320.55543990260253</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322.61483217140636</v>
+        <v>322.21787519978733</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>324.55628208689706</v>
+        <v>324.1751341522319</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>327.1296528502136</v>
+        <v>326.64833607717486</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>329.629371739768</v>
+        <v>329.2102062302892</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>332.4825867457501</v>
+        <v>332.28087045815494</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>334.81666555877786</v>
+        <v>334.475935618206</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>337.8846153485705</v>
+        <v>337.7113173853036</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>341.190478810549</v>
+        <v>341.2334959268033</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>343.7650269137456</v>
+        <v>343.63890045980025</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.6947912312947</v>
+        <v>347.2752408438127</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>350.504472704282</v>
+        <v>351.7610370285051</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>354.53910127592883</v>
+        <v>352.78651920455394</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>357.89271422455863</v>
+        <v>357.7911215389677</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>362.2730737518807</v>
+        <v>361.80788682712955</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>366.6592006418846</v>
+        <v>366.30401448856924</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>370.5309858082929</v>
+        <v>369.90683912978454</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>381.2180770953603</v>
+        <v>381.27420665322677</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>386.55583817090087</v>
+        <v>386.9717939034027</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>390.6814233607292</v>
+        <v>390.7896796999852</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>394.758561592235</v>
+        <v>394.6754025659563</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>399.97147509873</v>
+        <v>399.9983781325053</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>403.8457192059011</v>
+        <v>403.8862726665811</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>408.89210562402405</v>
+        <v>407.8919469052779</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>413.243992433158</v>
+        <v>413.92130666537145</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>417.8894491852293</v>
+        <v>417.5890037620243</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.38404197072293</v>
+        <v>422.2223361965058</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>425.81852139204227</v>
+        <v>425.38181070671556</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>431.0303835448419</v>
+        <v>430.8203158392031</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>434.9747787470715</v>
+        <v>435.00174850087103</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>438.78468259582246</v>
+        <v>438.3855731840905</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>443.35990444208994</v>
+        <v>443.2411871096186</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>448.3331271553726</v>
+        <v>448.3536387492793</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>451.8703287308937</v>
+        <v>451.35885356855346</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>457.34341394024835</v>
+        <v>457.1768438174367</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>461.81432945886235</v>
+        <v>461.17457635967907</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>466.80628463361717</v>
+        <v>466.8646969864262</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>472.5277557460137</v>
+        <v>472.25638181357476</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>477.8705947693908</v>
+        <v>477.6201406914527</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>484.55566967372357</v>
+        <v>484.5882972746218</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>490.80333529022903</v>
+        <v>490.85826058147967</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>496.8715655720604</v>
+        <v>496.87628470855594</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>504.4151265664385</v>
+        <v>504.812602050978</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>510.73587011826527</v>
+        <v>511.08001501137045</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>517.6871472559092</v>
+        <v>518.3002588878251</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>509.37115802800264</v>
+        <v>508.9530973952124</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>515.633538025206</v>
+        <v>514.6822655780566</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>523.1375849232804</v>
+        <v>523.4786906704581</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>531.1418101546406</v>
+        <v>529.8767950094134</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>538.5229466330861</v>
+        <v>538.0523510511051</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>548.0952452789976</v>
+        <v>547.7783311918653</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>557.448345545973</v>
+        <v>557.1103645257836</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>566.4694161613028</v>
+        <v>565.7537924241498</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>578.3775968047271</v>
+        <v>577.6378322181425</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>590.2154214810157</v>
+        <v>589.2271465196649</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>605.5770431725034</v>
+        <v>604.8388122695765</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>649.1321263715841</v>
+        <v>649.9230956079491</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>666.9858524782447</v>
+        <v>666.7774578256607</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>687.7482080945535</v>
+        <v>687.9874944526275</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>709.2213259567213</v>
+        <v>708.7211587700048</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>732.256004822899</v>
+        <v>732.7260421458809</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>756.3422704469771</v>
+        <v>756.0740892364176</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>782.4429010818283</v>
+        <v>782.197694872027</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>809.2624088290798</v>
+        <v>808.9872068550858</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>839.1854064583952</v>
+        <v>839.1827999045089</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>868.1504004502651</v>
+        <v>868.7721357605313</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>898.6531153942514</v>
+        <v>899.0916365999012</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>929.7817502513375</v>
+        <v>930.244269572975</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>962.5410557233159</v>
+        <v>963.5928630212279</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1037.0625436333235</v>
+        <v>1035.9760873558394</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1072.4515992754868</v>
+        <v>1071.3245623468722</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1110.8590945455105</v>
+        <v>1106.1434710141357</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1152.9573150338233</v>
+        <v>1154.1907039674052</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1198.6490780703339</v>
+        <v>1196.7149868954718</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1245.8440613721577</v>
+        <v>1244.3897777000743</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1384.1073772461798</v>
+        <v>1381.7119507116142</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1479.9310128267464</v>
+        <v>1477.150816765219</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1592.1542455294311</v>
+        <v>1593.1957597111202</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1663.6537634084086</v>
+        <v>1665.793976303367</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1735.3284083105682</v>
+        <v>1736.3253145580838</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1813.0732035036247</v>
+        <v>1814.5593614711988</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1899.351463047565</v>
+        <v>1895.1395133694882</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1992.3583949621445</v>
+        <v>1997.6137440159482</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2083.89870357145</v>
+        <v>2026.7878014766684</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2170.0582070764294</v>
+        <v>2116.695559036426</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2258.986822350874</v>
+        <v>2219.284298013383</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2346.810093476717</v>
+        <v>2319.060019787243</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2440.0182546406118</v>
+        <v>2431.985640824935</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2533.736264173795</v>
+        <v>2553.7122036217343</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2631.842329021829</v>
+        <v>2689.876456510467</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2724.2661124259357</v>
+        <v>2826.710369597117</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2823.5978601531947</v>
+        <v>2982.35903313128</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>2919.907057177965</v>
+        <v>3144.7943630072728</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3124.8070398289474</v>
+        <v>3373.4933998219776</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3222.467974207656</v>
+        <v>3548.032258663719</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3331.1578040054465</v>
+        <v>3895.5473305935975</v>
       </c>
     </row>
   </sheetData>

--- a/diğerhizmetlerma.xlsx
+++ b/diğerhizmetlerma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>312.97286131664697</v>
+        <v>312.24377923332685</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>314.4677763181824</v>
+        <v>313.9988184234482</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>316.0176559501009</v>
+        <v>315.71922253722573</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>317.42025381803415</v>
+        <v>317.7881732395257</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>320.55543990260253</v>
+        <v>320.17244875532134</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322.21787519978733</v>
+        <v>322.427610678049</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>324.1751341522319</v>
+        <v>324.39776229175374</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>326.64833607717486</v>
+        <v>326.90886279351275</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>329.2102062302892</v>
+        <v>329.4343782004268</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>332.28087045815494</v>
+        <v>332.36808560307503</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>334.475935618206</v>
+        <v>334.6284707088194</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>337.7113173853036</v>
+        <v>337.76432499384504</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>341.2334959268033</v>
+        <v>341.14243835020204</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>343.63890045980025</v>
+        <v>343.6796963246869</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.2752408438127</v>
+        <v>347.46838777939365</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>351.7610370285051</v>
+        <v>350.87186037397663</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>352.78651920455394</v>
+        <v>353.86044445172206</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>357.7911215389677</v>
+        <v>357.8091833094363</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>361.80788682712955</v>
+        <v>361.9863239082122</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>366.30401448856924</v>
+        <v>366.46799366423943</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>369.90683912978454</v>
+        <v>370.2029260201797</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>381.27420665322677</v>
+        <v>381.1914482280081</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>386.9717939034027</v>
+        <v>386.6875765433966</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>390.7896796999852</v>
+        <v>390.65687313600887</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>394.6754025659563</v>
+        <v>394.6700227963539</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>399.9983781325053</v>
+        <v>399.92121863271984</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>403.8862726665811</v>
+        <v>403.7972664943982</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>407.8919469052779</v>
+        <v>408.47996559074875</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>413.92130666537145</v>
+        <v>413.39923043403803</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>417.5890037620243</v>
+        <v>417.68821064753666</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.2223361965058</v>
+        <v>422.2790057566963</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>425.38181070671556</v>
+        <v>425.5577979821596</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>430.8203158392031</v>
+        <v>430.88427114909763</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>435.00174850087103</v>
+        <v>434.92319462383324</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>438.3855731840905</v>
+        <v>438.53853543171107</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>443.2411871096186</v>
+        <v>443.2514126802216</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>448.3536387492793</v>
+        <v>448.26945900086605</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>451.35885356855346</v>
+        <v>451.5946000322016</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>457.1768438174367</v>
+        <v>457.23541703725067</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>461.17457635967907</v>
+        <v>461.5158446103128</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>466.8646969864262</v>
+        <v>466.73806530690297</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>472.25638181357476</v>
+        <v>472.36590249468026</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>477.6201406914527</v>
+        <v>477.6874487314248</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>484.5882972746218</v>
+        <v>484.4881988534495</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>490.85826058147967</v>
+        <v>490.7343616532053</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>496.87628470855594</v>
+        <v>496.75013429208315</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>504.812602050978</v>
+        <v>504.47139690628165</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>511.08001501137045</v>
+        <v>510.7330950198932</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>518.3002588878251</v>
+        <v>517.811075651076</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>508.9530973952124</v>
+        <v>509.2102059728117</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>514.6822655780566</v>
+        <v>515.2142763929938</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>523.4786906704581</v>
+        <v>523.2027668071701</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>529.8767950094134</v>
+        <v>530.6474412523343</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>538.0523510511051</v>
+        <v>538.248412062132</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>547.7783311918653</v>
+        <v>547.8665399376869</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>557.1103645257836</v>
+        <v>557.2044561817377</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>565.7537924241498</v>
+        <v>566.0338523835097</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>577.6378322181425</v>
+        <v>577.9589160375216</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>589.2271465196649</v>
+        <v>589.6181686721417</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>604.8388122695765</v>
+        <v>605.0658147476526</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>649.9230956079491</v>
+        <v>649.4546532117524</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>666.7774578256607</v>
+        <v>666.8969699646677</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>687.9874944526275</v>
+        <v>687.8248016978031</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>708.7211587700048</v>
+        <v>708.9827055968444</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>732.7260421458809</v>
+        <v>732.3200029589153</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>756.0740892364176</v>
+        <v>756.1409674048847</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>782.197694872027</v>
+        <v>782.2609025891635</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>808.9872068550858</v>
+        <v>808.9923747868083</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>839.1827999045089</v>
+        <v>839.0465322868455</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>868.7721357605313</v>
+        <v>868.2290194511781</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>899.0916365999012</v>
+        <v>898.6938130162745</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>930.244269572975</v>
+        <v>929.8813215205874</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>963.5928630212279</v>
+        <v>962.9357793971549</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1035.9760873558394</v>
+        <v>1036.3009479614927</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1071.3245623468722</v>
+        <v>1071.7876881491525</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1106.1434710141357</v>
+        <v>1108.9632865309459</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1154.1907039674052</v>
+        <v>1153.179651312644</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1196.7149868954718</v>
+        <v>1197.765858863732</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1244.3897777000743</v>
+        <v>1245.2365697615103</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1381.7119507116142</v>
+        <v>1382.6761701617515</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1477.150816765219</v>
+        <v>1478.3669781693804</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1593.1957597111202</v>
+        <v>1592.2605522859594</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1665.793976303367</v>
+        <v>1664.3132639575788</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1736.3253145580838</v>
+        <v>1735.3883081927347</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1814.5593614711988</v>
+        <v>1813.314208483837</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1895.1395133694882</v>
+        <v>1897.1280884300975</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1997.6137440159482</v>
+        <v>1983.5601412549902</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2026.7878014766684</v>
+        <v>2063.8645040908386</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2116.695559036426</v>
+        <v>2154.9735225386635</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2219.284298013383</v>
+        <v>2249.9276656629313</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2319.060019787243</v>
+        <v>2342.7241555562873</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2431.985640824935</v>
+        <v>2443.599010851892</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2553.7122036217343</v>
+        <v>2547.6691848964324</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2689.876456510467</v>
+        <v>2659.3575948223975</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2826.710369597117</v>
+        <v>2767.0054635751</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2982.35903313128</v>
+        <v>2885.5047989697587</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3144.7943630072728</v>
+        <v>3003.4689912631097</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3373.4933998219776</v>
+        <v>3190.8879921656758</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3548.032258663719</v>
+        <v>3327.900031642693</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,15 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3895.5473305935975</v>
+        <v>3492.4641947626887</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3636.3034285257822</v>
       </c>
     </row>
   </sheetData>

--- a/diğerhizmetlerma.xlsx
+++ b/diğerhizmetlerma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>312.24377923332685</v>
+        <v>312.2433393268268</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>313.9988184234482</v>
+        <v>313.998507592721</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>315.71922253722573</v>
+        <v>315.71922000741193</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>317.7881732395257</v>
+        <v>317.7873167125572</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>320.17244875532134</v>
+        <v>320.1733487158136</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322.427610678049</v>
+        <v>322.4275674949648</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>324.39776229175374</v>
+        <v>324.397853136346</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>326.90886279351275</v>
+        <v>326.9088535893365</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>329.4343782004268</v>
+        <v>329.43443325383873</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>332.36808560307503</v>
+        <v>332.36838446171527</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>334.6284707088194</v>
+        <v>334.6283764098991</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>337.76432499384504</v>
+        <v>337.7643166978512</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>341.14243835020204</v>
+        <v>341.14254086063573</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>343.6796963246869</v>
+        <v>343.6795690300689</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.46838777939365</v>
+        <v>347.46788428891585</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>350.87186037397663</v>
+        <v>350.873450509504</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>353.86044445172206</v>
+        <v>353.8582631105144</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>357.8091833094363</v>
+        <v>357.8090375314397</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>361.9863239082122</v>
+        <v>361.98569706023994</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>366.46799366423943</v>
+        <v>366.4675351906019</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>370.2029260201797</v>
+        <v>370.202046674825</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>381.1914482280081</v>
+        <v>381.19161258258384</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>386.6875765433966</v>
+        <v>386.68835862196227</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>390.65687313600887</v>
+        <v>390.65713683808826</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>394.6700227963539</v>
+        <v>394.66996423737015</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>399.92121863271984</v>
+        <v>399.92138480388314</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>403.7972664943982</v>
+        <v>403.7973869466459</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>408.47996559074875</v>
+        <v>408.4787698669064</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>413.39923043403803</v>
+        <v>413.4001120611449</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>417.68821064753666</v>
+        <v>417.6878925006513</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.2790057566963</v>
+        <v>422.2788593567363</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>425.5577979821596</v>
+        <v>425.557206119924</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>430.88427114909763</v>
+        <v>430.8840574039274</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>434.92319462383324</v>
+        <v>434.92336168445</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>438.53853543171107</v>
+        <v>438.53797609818986</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>443.2514126802216</v>
+        <v>443.2513379593088</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>448.26945900086605</v>
+        <v>448.26961544032696</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>451.5946000322016</v>
+        <v>451.5938536369065</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>457.23541703725067</v>
+        <v>457.23524355520254</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>461.5158446103128</v>
+        <v>461.51505787875357</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>466.73806530690297</v>
+        <v>466.73812543720675</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>472.36590249468026</v>
+        <v>472.3656174984953</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>477.6874487314248</v>
+        <v>477.687162843761</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>484.4881988534495</v>
+        <v>484.4884044051432</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>490.7343616532053</v>
+        <v>490.73460192424585</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>496.75013429208315</v>
+        <v>496.7502988626696</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>504.47139690628165</v>
+        <v>504.47224194792335</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>510.7330950198932</v>
+        <v>510.73386653840436</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>517.811075651076</v>
+        <v>517.8123115421927</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>509.2102059728117</v>
+        <v>509.2095495605337</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>515.2142763929938</v>
+        <v>515.2127914301288</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>523.2027668071701</v>
+        <v>523.203075885747</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>530.6474412523343</v>
+        <v>530.645825265364</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>538.248412062132</v>
+        <v>538.2476759020852</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>547.8665399376869</v>
+        <v>547.8661601752711</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>557.2044561817377</v>
+        <v>557.2040377426581</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>566.0338523835097</v>
+        <v>566.032852823762</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>577.9589160375216</v>
+        <v>577.9579011751154</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>589.6181686721417</v>
+        <v>589.6167382216125</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>605.0658147476526</v>
+        <v>605.0647972761607</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>649.4546532117524</v>
+        <v>649.4561643601247</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>666.8969699646677</v>
+        <v>666.8969122733458</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>687.8248016978031</v>
+        <v>687.8254351645028</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>708.9827055968444</v>
+        <v>708.9823563012937</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>732.3200029589153</v>
+        <v>732.3207454270639</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>756.1409674048847</v>
+        <v>756.1408036146821</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>782.2609025891635</v>
+        <v>782.2606883798542</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>808.9923747868083</v>
+        <v>808.9921585317213</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>839.0465322868455</v>
+        <v>839.0466830090244</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>868.2290194511781</v>
+        <v>868.2301623711809</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>898.6938130162745</v>
+        <v>898.6945909723051</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>929.8813215205874</v>
+        <v>929.8821062241707</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>962.9357793971549</v>
+        <v>962.9374491636912</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1036.3009479614927</v>
+        <v>1036.2996735057277</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1071.7876881491525</v>
+        <v>1071.7861443905822</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1108.9632865309459</v>
+        <v>1108.9570301612373</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1153.179651312644</v>
+        <v>1153.1808614717916</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1197.765858863732</v>
+        <v>1197.7630185593882</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1245.2365697615103</v>
+        <v>1245.2341911810179</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1382.6761701617515</v>
+        <v>1382.672859696721</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1478.3669781693804</v>
+        <v>1478.3629418642915</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1592.2605522859594</v>
+        <v>1592.2629866237828</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1664.3132639575788</v>
+        <v>1664.3174651560598</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1735.3883081927347</v>
+        <v>1735.3904265145095</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1813.314208483837</v>
+        <v>1813.3166693610515</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1897.1280884300975</v>
+        <v>1897.125785426305</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1983.5601412549902</v>
+        <v>1983.5601558167941</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2063.8645040908386</v>
+        <v>2063.859833420656</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2154.9735225386635</v>
+        <v>2155.0041631867352</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2249.9276656629313</v>
+        <v>2249.960948424685</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2342.7241555562873</v>
+        <v>2342.7520647554074</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2443.599010851892</v>
+        <v>2443.619994907529</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2547.6691848964324</v>
+        <v>2547.680758301305</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2659.3575948223975</v>
+        <v>2659.3578667666093</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2767.0054635751</v>
+        <v>2766.984959325744</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2885.5047989697587</v>
+        <v>2885.4599648280678</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3003.4689912631097</v>
+        <v>3003.391542462777</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3190.8879921656758</v>
+        <v>3190.714361578385</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3327.900031642693</v>
+        <v>3327.67324346539</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3492.4641947626887</v>
+        <v>3492.1980553677663</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>3636.3034285257822</v>
+        <v>3635.8883444397748</v>
       </c>
     </row>
   </sheetData>

--- a/diğerhizmetlerma.xlsx
+++ b/diğerhizmetlerma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>312.2433393268268</v>
+        <v>311.86597226622746</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>313.998507592721</v>
+        <v>313.7556039703599</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>315.71922000741193</v>
+        <v>315.50300228655703</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>317.7873167125572</v>
+        <v>317.9228795158887</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>320.1733487158136</v>
+        <v>319.8982856840943</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322.4275674949648</v>
+        <v>322.4795402285256</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>324.397853136346</v>
+        <v>324.4147107122194</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>326.9088535893365</v>
+        <v>326.98518814446</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>329.43443325383873</v>
+        <v>329.48599260268446</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>332.36838446171527</v>
+        <v>332.34381914379725</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>334.6283764098991</v>
+        <v>334.6810335129299</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>337.7643166978512</v>
+        <v>337.7560828544119</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>341.14254086063573</v>
+        <v>341.06865606729616</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>343.6795690300689</v>
+        <v>343.6390132051329</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.46788428891585</v>
+        <v>347.56909170920136</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>350.873450509504</v>
+        <v>350.3762024616539</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>353.8582631105144</v>
+        <v>354.4093079931597</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>357.8090375314397</v>
+        <v>357.76057743070487</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>361.98569706023994</v>
+        <v>362.1386805276844</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>366.4675351906019</v>
+        <v>366.52439621140263</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>370.202046674825</v>
+        <v>370.392006305661</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>381.19161258258384</v>
+        <v>381.08181225444105</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>386.68835862196227</v>
+        <v>386.42115746335975</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>390.65713683808826</v>
+        <v>390.5416288306194</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>394.66996423737015</v>
+        <v>394.6159464541104</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>399.92138480388314</v>
+        <v>399.828733236661</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>403.7973869466459</v>
+        <v>403.6988900379332</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>408.4787698669064</v>
+        <v>408.74418450104076</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>413.4001120611449</v>
+        <v>413.0935174720068</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>417.6878925006513</v>
+        <v>417.73771087637914</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.2788593567363</v>
+        <v>422.23086093277465</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>425.557206119924</v>
+        <v>425.661085204581</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>430.8840574039274</v>
+        <v>430.8735863475004</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>434.92336168445</v>
+        <v>434.8185964035749</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>438.53797609818986</v>
+        <v>438.62273952693164</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>443.2513379593088</v>
+        <v>443.19966435242475</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>448.26961544032696</v>
+        <v>448.1717492869097</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>451.5938536369065</v>
+        <v>451.70343575816685</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>457.23524355520254</v>
+        <v>457.17751542406415</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>461.51505787875357</v>
+        <v>461.64609364792676</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>466.73812543720675</v>
+        <v>466.63526661730174</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>472.3656174984953</v>
+        <v>472.35693154013865</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>477.687162843761</v>
+        <v>477.6956008225981</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>484.4884044051432</v>
+        <v>484.3814847576335</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>490.73460192424585</v>
+        <v>490.62669200261786</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>496.7502988626696</v>
+        <v>496.69125996072034</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>504.47224194792335</v>
+        <v>504.23643289503497</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>510.73386653840436</v>
+        <v>510.5531582071619</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>517.8123115421927</v>
+        <v>517.5051710075303</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>509.2095495605337</v>
+        <v>509.1859981210577</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>515.2127914301288</v>
+        <v>515.442604118331</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>523.203075885747</v>
+        <v>522.9462589631464</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>530.645825265364</v>
+        <v>530.9488861267721</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>538.2476759020852</v>
+        <v>538.3229559163456</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>547.8661601752711</v>
+        <v>547.8954888266061</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>557.2040377426581</v>
+        <v>557.2437996133901</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>566.032852823762</v>
+        <v>566.2572466982261</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>577.9579011751154</v>
+        <v>578.1622604743617</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>589.6167382216125</v>
+        <v>589.9905988903885</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>605.0647972761607</v>
+        <v>605.3485845584825</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>649.4561643601247</v>
+        <v>648.9093007308037</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>666.8969122733458</v>
+        <v>666.7490161940557</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>687.8254351645028</v>
+        <v>687.5052452892662</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>708.9823563012937</v>
+        <v>708.9689221640667</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>732.3207454270639</v>
+        <v>731.9924455805752</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>756.1408036146821</v>
+        <v>756.0701484331477</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>782.2606883798542</v>
+        <v>782.159523649497</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>808.9921585317213</v>
+        <v>808.9680360424553</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>839.0466830090244</v>
+        <v>838.882708103297</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>868.2301623711809</v>
+        <v>867.8402857446252</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>898.6945909723051</v>
+        <v>898.3313346733681</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>929.8821062241707</v>
+        <v>929.4499957271943</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>962.9374491636912</v>
+        <v>962.2033506818169</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1036.2996735057277</v>
+        <v>1036.6792283114405</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1071.7861443905822</v>
+        <v>1072.05136783572</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1108.9570301612373</v>
+        <v>1110.444565030191</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1153.1808614717916</v>
+        <v>1152.529980087111</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1197.7630185593882</v>
+        <v>1198.2081524580497</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1245.2341911810179</v>
+        <v>1245.3842397216342</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1382.672859696721</v>
+        <v>1383.5863240775284</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1478.3629418642915</v>
+        <v>1479.3728209121864</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1592.2629866237828</v>
+        <v>1591.5862370378684</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1664.3174651560598</v>
+        <v>1663.0741340279708</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1735.3904265145095</v>
+        <v>1734.7047533527436</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1813.3166693610515</v>
+        <v>1812.4333477620116</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1897.125785426305</v>
+        <v>1897.895953023448</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1983.5601558167941</v>
+        <v>1984.8422133678237</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2063.859833420656</v>
+        <v>2064.7004270828343</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2155.0041631867352</v>
+        <v>2155.8468799198813</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2249.960948424685</v>
+        <v>2258.856783756145</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2342.7520647554074</v>
+        <v>2353.2975895556947</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2443.619994907529</v>
+        <v>2452.037357739654</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2547.680758301305</v>
+        <v>2552.1748572568913</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2659.3578667666093</v>
+        <v>2657.6881578367415</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2766.984959325744</v>
+        <v>2758.444379906398</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2885.4599648280678</v>
+        <v>2867.2953095436937</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3003.391542462777</v>
+        <v>2974.1933823167897</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3190.714361578385</v>
+        <v>3171.113239477364</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3327.67324346539</v>
+        <v>3291.440503725006</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3492.1980553677663</v>
+        <v>3433.620143024737</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,15 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>3635.8883444397748</v>
+        <v>3560.623666120318</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3680.859006317696</v>
       </c>
     </row>
   </sheetData>

--- a/diğerhizmetlerma.xlsx
+++ b/diğerhizmetlerma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>311.86597226622746</v>
+        <v>311.94303068956845</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>313.7556039703599</v>
+        <v>313.80948007404635</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>315.50300228655703</v>
+        <v>315.5377406374521</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>317.9228795158887</v>
+        <v>317.9410772340435</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>319.8982856840943</v>
+        <v>319.9124465928399</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322.4795402285256</v>
+        <v>322.46975000198114</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>324.4147107122194</v>
+        <v>324.4374848646858</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>326.98518814446</v>
+        <v>326.9137391317315</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>329.48599260268446</v>
+        <v>329.6239138300579</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>332.34381914379725</v>
+        <v>331.73276886215564</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>334.6810335129299</v>
+        <v>334.3109076864431</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>337.7560828544119</v>
+        <v>337.3775595232829</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>341.06865606729616</v>
+        <v>340.85895550653606</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>343.6390132051329</v>
+        <v>343.5634801727818</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.56909170920136</v>
+        <v>347.70900769139826</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>350.3762024616539</v>
+        <v>350.761114806911</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>354.4093079931597</v>
+        <v>355.08245803413683</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>357.76057743070487</v>
+        <v>358.79711709129737</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>362.1386805276844</v>
+        <v>363.51699026168177</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>366.52439621140263</v>
+        <v>368.4853639488194</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>370.392006305661</v>
+        <v>372.5535809359972</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>381.08181225444105</v>
+        <v>378.48063045271203</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>386.42115746335975</v>
+        <v>384.0299016100233</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>390.5416288306194</v>
+        <v>388.77090373266986</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>394.6159464541104</v>
+        <v>393.28474594647304</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>399.828733236661</v>
+        <v>399.032964635254</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>403.6988900379332</v>
+        <v>403.3851360732809</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>408.74418450104076</v>
+        <v>408.9452724756481</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>413.0935174720068</v>
+        <v>413.78852268274676</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>417.73771087637914</v>
+        <v>418.9519267029023</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.23086093277465</v>
+        <v>423.9229326067235</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>425.661085204581</v>
+        <v>427.8985056213004</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>430.8735863475004</v>
+        <v>433.4857822666775</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>434.8185964035749</v>
+        <v>432.8395392765126</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>438.62273952693164</v>
+        <v>436.89635958367035</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>443.19966435242475</v>
+        <v>441.92519797670934</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>448.1717492869097</v>
+        <v>447.2222777354193</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>451.70343575816685</v>
+        <v>451.04740405286304</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>457.17751542406415</v>
+        <v>456.8130960647065</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>461.64609364792676</v>
+        <v>461.5212985230324</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>466.63526661730174</v>
+        <v>466.7241354942096</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>472.35693154013865</v>
+        <v>472.60972088375024</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>477.6956008225981</v>
+        <v>478.11827135475204</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>484.3814847576335</v>
+        <v>484.8140945310625</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>490.62669200261786</v>
+        <v>491.34855043419634</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>496.69125996072034</v>
+        <v>496.5634213629642</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>504.23643289503497</v>
+        <v>504.3724716395093</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>510.5531582071619</v>
+        <v>510.58877932589945</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>517.5051710075303</v>
+        <v>517.6063564891789</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>509.1859981210577</v>
+        <v>509.1547977561799</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>515.442604118331</v>
+        <v>515.4056874934298</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>522.9462589631464</v>
+        <v>522.9275091394884</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>530.9488861267721</v>
+        <v>530.9428666435277</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>538.3229559163456</v>
+        <v>538.3051916936585</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>547.8954888266061</v>
+        <v>547.8986875429177</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>557.2437996133901</v>
+        <v>557.2457365157109</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>566.2572466982261</v>
+        <v>566.2444099803566</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>578.1622604743617</v>
+        <v>578.156154547485</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>589.9905988903885</v>
+        <v>589.9644465586756</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>605.3485845584825</v>
+        <v>605.3305572294921</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>648.9093007308037</v>
+        <v>649.0127950147137</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>666.7490161940557</v>
+        <v>666.7982009896622</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>687.5052452892662</v>
+        <v>687.5644233059548</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>708.9689221640667</v>
+        <v>709.0174999940098</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>731.9924455805752</v>
+        <v>732.0292660023375</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>756.0701484331477</v>
+        <v>756.1063412441176</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>782.159523649497</v>
+        <v>782.1879342812306</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>808.9680360424553</v>
+        <v>808.9911114634368</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>838.882708103297</v>
+        <v>838.9164453126324</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>867.8402857446252</v>
+        <v>867.889050669852</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>898.3313346733681</v>
+        <v>898.3785763287011</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>929.4499957271943</v>
+        <v>929.5024639980046</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>962.2033506818169</v>
+        <v>962.2890440622954</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1036.6792283114405</v>
+        <v>1036.6780133701175</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1072.05136783572</v>
+        <v>1072.0341931955159</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1110.444565030191</v>
+        <v>1110.4269643717457</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1152.529980087111</v>
+        <v>1152.524573811315</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1198.2081524580497</v>
+        <v>1198.2167295811744</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1245.3842397216342</v>
+        <v>1245.3865769577885</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1383.5863240775284</v>
+        <v>1383.5467318479484</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1479.3728209121864</v>
+        <v>1479.3252640635167</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1591.5862370378684</v>
+        <v>1591.6867851994064</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1663.0741340279708</v>
+        <v>1663.2325782072214</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1734.7047533527436</v>
+        <v>1734.7997688477885</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1812.4333477620116</v>
+        <v>1812.5566193876948</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1897.895953023448</v>
+        <v>1897.8545566938628</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1984.8422133678237</v>
+        <v>1985.0070092279473</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2064.7004270828343</v>
+        <v>2064.4371062458995</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2155.8468799198813</v>
+        <v>2156.289123219284</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2258.856783756145</v>
+        <v>2256.6548597913825</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2353.2975895556947</v>
+        <v>2350.5032655224686</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2452.037357739654</v>
+        <v>2449.5634027820192</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2552.1748572568913</v>
+        <v>2550.396912590562</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2657.6881578367415</v>
+        <v>2657.0106457279203</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2758.444379906398</v>
+        <v>2759.176628519578</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2867.2953095436937</v>
+        <v>2869.9697637018453</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>2974.1933823167897</v>
+        <v>2979.2077836888784</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3171.113239477364</v>
+        <v>3177.7931616019896</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3291.440503725006</v>
+        <v>3301.4114591309203</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3433.620143024737</v>
+        <v>3448.6165815128747</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>3560.623666120318</v>
+        <v>3579.5006923522214</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>3680.859006317696</v>
+        <v>3709.851883988406</v>
       </c>
     </row>
   </sheetData>

--- a/diğerhizmetlerma.xlsx
+++ b/diğerhizmetlerma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>311.94303068956845</v>
+        <v>311.74124831530975</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>313.80948007404635</v>
+        <v>313.73551343335174</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>315.5377406374521</v>
+        <v>315.5677149190848</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>317.9410772340435</v>
+        <v>318.0631587385171</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>319.9124465928399</v>
+        <v>320.087160799028</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322.46975000198114</v>
+        <v>322.7027818824364</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>324.4374848646858</v>
+        <v>324.6375426174179</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>326.9137391317315</v>
+        <v>327.19254842790883</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>329.6239138300579</v>
+        <v>329.6962059815638</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>331.73276886215564</v>
+        <v>332.5815974060246</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>334.3109076864431</v>
+        <v>334.8289535357326</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>337.3775595232829</v>
+        <v>337.9013820837441</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>340.85895550653606</v>
+        <v>341.2217683471738</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>343.5634801727818</v>
+        <v>343.74765885600635</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.70900769139826</v>
+        <v>347.70204531290835</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>350.761114806911</v>
+        <v>350.48082293966087</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>355.08245803413683</v>
+        <v>354.5027567919713</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>358.79711709129737</v>
+        <v>357.822382944788</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>363.51699026168177</v>
+        <v>362.1868951586014</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>368.4853639488194</v>
+        <v>366.6071859179911</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>372.5535809359972</v>
+        <v>370.39335641685295</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>378.48063045271203</v>
+        <v>381.28542002981754</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>384.0299016100233</v>
+        <v>386.7359424938604</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>388.77090373266986</v>
+        <v>390.7523439023651</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>393.28474594647304</v>
+        <v>394.7828161618481</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>399.032964635254</v>
+        <v>400.04657993451156</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>403.3851360732809</v>
+        <v>403.84759861455973</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>408.9452724756481</v>
+        <v>408.9051533683084</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>413.78852268274676</v>
+        <v>413.234846653372</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>418.9519267029023</v>
+        <v>417.8953430178868</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>423.9229326067235</v>
+        <v>422.3876835432191</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>427.8985056213004</v>
+        <v>425.73263755338286</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>433.4857822666775</v>
+        <v>431.021884976253</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>432.8395392765126</v>
+        <v>435.0326142170079</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>436.89635958367035</v>
+        <v>438.70571892275206</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>441.92519797670934</v>
+        <v>443.38129345184626</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>447.2222777354193</v>
+        <v>448.383833064066</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>451.04740405286304</v>
+        <v>451.77666187189936</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>456.8130960647065</v>
+        <v>457.3410675211059</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>461.5212985230324</v>
+        <v>461.7944282001797</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>466.7241354942096</v>
+        <v>466.7602016000887</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>472.60972088375024</v>
+        <v>472.542537228501</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>478.11827135475204</v>
+        <v>477.83321014310553</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>484.8140945310625</v>
+        <v>484.6152406895037</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>491.34855043419634</v>
+        <v>490.86198061265884</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>496.5634213629642</v>
+        <v>496.89500364439687</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>504.3724716395093</v>
+        <v>504.5713227834705</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>510.58877932589945</v>
+        <v>510.85211402638896</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>517.6063564891789</v>
+        <v>517.9002702098595</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>509.1547977561799</v>
+        <v>509.3363640448244</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>515.4056874934298</v>
+        <v>515.4901789438923</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>522.9275091394884</v>
+        <v>523.0748898251073</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>530.9428666435277</v>
+        <v>531.1212877318898</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>538.3051916936585</v>
+        <v>538.3830576423494</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>547.8986875429177</v>
+        <v>548.0715579781998</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>557.2457365157109</v>
+        <v>557.392920875225</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>566.2444099803566</v>
+        <v>566.2878283179217</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>578.156154547485</v>
+        <v>578.2178278239462</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>589.9644465586756</v>
+        <v>589.9240115671215</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>605.3305572294921</v>
+        <v>605.3501207852543</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>649.0127950147137</v>
+        <v>649.5130727278156</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>666.7982009896622</v>
+        <v>667.1103592417953</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>687.5644233059548</v>
+        <v>687.9363686782019</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>709.0174999940098</v>
+        <v>709.3677412090659</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>732.0292660023375</v>
+        <v>732.3209634021945</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>756.1063412441176</v>
+        <v>756.4136296430278</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>782.1879342812306</v>
+        <v>782.4646871511111</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>808.9911114634368</v>
+        <v>809.2577705390173</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>838.9164453126324</v>
+        <v>839.2578183427439</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>867.889050669852</v>
+        <v>868.361754684358</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>898.3785763287011</v>
+        <v>898.8312096153609</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>929.5024639980046</v>
+        <v>929.9931880121435</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>962.2890440622954</v>
+        <v>962.9382052114343</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1036.6780133701175</v>
+        <v>1036.8552828769486</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1072.0341931955159</v>
+        <v>1072.0933567492657</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1110.4269643717457</v>
+        <v>1110.463938593427</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1152.524573811315</v>
+        <v>1152.6435629464313</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1198.2167295811744</v>
+        <v>1198.4201213837446</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1245.3865769577885</v>
+        <v>1245.546206485915</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1383.5467318479484</v>
+        <v>1383.4847297425817</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1479.3252640635167</v>
+        <v>1479.20954613911</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1591.6867851994064</v>
+        <v>1592.5926236777286</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1663.2325782072214</v>
+        <v>1664.47333105191</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1734.7997688477885</v>
+        <v>1735.7121056842648</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1812.5566193876948</v>
+        <v>1813.5412332461776</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1897.8545566938628</v>
+        <v>1899.079757621833</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1985.0070092279473</v>
+        <v>2004.8477780975977</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2064.4371062458995</v>
+        <v>2081.834145209047</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2156.289123219284</v>
+        <v>2172.534716788025</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2256.6548597913825</v>
+        <v>2267.972888724919</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2350.5032655224686</v>
+        <v>2356.31363274889</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2449.5634027820192</v>
+        <v>2445.9277557248406</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2550.396912590562</v>
+        <v>2534.4681234003806</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2657.0106457279203</v>
+        <v>2625.7806544748496</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2759.176628519578</v>
+        <v>2708.5188260028026</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2869.9697637018453</v>
+        <v>2796.2884136283683</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>2979.2077836888784</v>
+        <v>2878.075690460146</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3177.7931616019896</v>
+        <v>3100.7687054455077</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3301.4114591309203</v>
+        <v>3159.044409978367</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3448.6165815128747</v>
+        <v>3267.757705738763</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>3579.5006923522214</v>
+        <v>3353.5244732344368</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,15 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>3709.851883988406</v>
+        <v>3438.5612942709176</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45809.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3534.4256034712403</v>
       </c>
     </row>
   </sheetData>

--- a/diğerhizmetlerma.xlsx
+++ b/diğerhizmetlerma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>311.74124831530975</v>
+        <v>311.7371041012822</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>313.73551343335174</v>
+        <v>313.73268272847076</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>315.5677149190848</v>
+        <v>315.56603647437606</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>318.0631587385171</v>
+        <v>318.0622221861009</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>320.087160799028</v>
+        <v>320.08680281339235</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322.7027818824364</v>
+        <v>322.7027924074704</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>324.6375426174179</v>
+        <v>324.637915480689</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>327.19254842790883</v>
+        <v>327.1931413262316</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>329.6962059815638</v>
+        <v>329.6966082430683</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>332.5815974060246</v>
+        <v>332.5814139472168</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>334.8289535357326</v>
+        <v>334.8290871357139</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>337.9013820837441</v>
+        <v>337.9009825737555</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>341.2217683471738</v>
+        <v>341.22084485049226</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>343.74765885600635</v>
+        <v>343.74721439264323</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.70204531290835</v>
+        <v>347.70140733673634</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>350.48082293966087</v>
+        <v>350.4804028769776</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>354.5027567919713</v>
+        <v>354.5024822599766</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>357.822382944788</v>
+        <v>357.82240364242193</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>362.1868951586014</v>
+        <v>362.1869920391028</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>366.6071859179911</v>
+        <v>366.6070154949204</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>370.39335641685295</v>
+        <v>370.3938957817833</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>381.28542002981754</v>
+        <v>381.2841927066456</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>386.7359424938604</v>
+        <v>386.73373638390717</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>390.7523439023651</v>
+        <v>390.7510146672746</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>394.7828161618481</v>
+        <v>394.78192383779697</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>400.04657993451156</v>
+        <v>400.0452847981443</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>403.84759861455973</v>
+        <v>403.8468363694524</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>408.9051533683084</v>
+        <v>408.90437967239325</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>413.234846653372</v>
+        <v>413.2341915872689</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>417.8953430178868</v>
+        <v>417.89453548047845</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.3876835432191</v>
+        <v>422.38695933007483</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>425.73263755338286</v>
+        <v>425.7326275858218</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>431.021884976253</v>
+        <v>431.02122814904783</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>435.0326142170079</v>
+        <v>435.0313650130235</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>438.70571892275206</v>
+        <v>438.7056171043845</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>443.38129345184626</v>
+        <v>443.3803775088303</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>448.383833064066</v>
+        <v>448.3825917072415</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>451.77666187189936</v>
+        <v>451.7767297350306</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>457.3410675211059</v>
+        <v>457.34038024114716</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>461.7944282001797</v>
+        <v>461.7938316705597</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>466.7602016000887</v>
+        <v>466.75979416873827</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>472.542537228501</v>
+        <v>472.54168352785865</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>477.83321014310553</v>
+        <v>477.83265043965935</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>484.6152406895037</v>
+        <v>484.61387939477</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>490.86198061265884</v>
+        <v>490.8605798359194</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>496.89500364439687</v>
+        <v>496.8938041599531</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>504.5713227834705</v>
+        <v>504.5690185475279</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>510.85211402638896</v>
+        <v>510.85002551276824</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>517.9002702098595</v>
+        <v>517.8973981998507</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>509.3363640448244</v>
+        <v>509.33601122346334</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>515.4901789438923</v>
+        <v>515.4907224416775</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>523.0748898251073</v>
+        <v>523.0746970298626</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>531.1212877318898</v>
+        <v>531.1207072838697</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>538.3830576423494</v>
+        <v>538.383328197307</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>548.0715579781998</v>
+        <v>548.0708295994935</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>557.392920875225</v>
+        <v>557.3923447706334</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>566.2878283179217</v>
+        <v>566.2882373710672</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>578.2178278239462</v>
+        <v>578.2181473527709</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>589.9240115671215</v>
+        <v>589.9251778146539</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>605.3501207852543</v>
+        <v>605.3506700349608</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>649.5130727278156</v>
+        <v>649.5089437935959</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>667.1103592417953</v>
+        <v>667.1085469837518</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>687.9363686782019</v>
+        <v>687.933821218323</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>709.3677412090659</v>
+        <v>709.365411122823</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>732.3209634021945</v>
+        <v>732.3192367538351</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>756.4136296430278</v>
+        <v>756.4118105929512</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>782.4646871511111</v>
+        <v>782.4631862522374</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>809.2577705390173</v>
+        <v>809.2563569537563</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>839.2578183427439</v>
+        <v>839.2556845141946</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>868.361754684358</v>
+        <v>868.3581532688781</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>898.8312096153609</v>
+        <v>898.8279330359214</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>929.9931880121435</v>
+        <v>929.9896591263682</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>962.9382052114343</v>
+        <v>962.9330367287466</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1036.8552828769486</v>
+        <v>1036.8552239448666</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1072.0933567492657</v>
+        <v>1072.0947018218324</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1110.463938593427</v>
+        <v>1110.4657127580554</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1152.6435629464313</v>
+        <v>1152.6444943230733</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1198.4201213837446</v>
+        <v>1198.4202448058716</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1245.546206485915</v>
+        <v>1245.546860075426</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1383.4847297425817</v>
+        <v>1383.4876359490918</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1479.20954613911</v>
+        <v>1479.213201156104</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1592.5926236777286</v>
+        <v>1592.5858943155354</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1664.47333105191</v>
+        <v>1664.4633467676013</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1735.7121056842648</v>
+        <v>1735.7055708989876</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1813.5412332461776</v>
+        <v>1813.5335092636371</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1899.079757621833</v>
+        <v>1899.1012298088983</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2004.8477780975977</v>
+        <v>2004.8501686943691</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2081.834145209047</v>
+        <v>2081.8421600484685</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2172.534716788025</v>
+        <v>2172.5579245144922</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2267.972888724919</v>
+        <v>2267.9295116842004</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2356.31363274889</v>
+        <v>2356.4648552749527</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2445.9277557248406</v>
+        <v>2446.0804889596366</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2534.4681234003806</v>
+        <v>2534.585630045833</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2625.7806544748496</v>
+        <v>2625.8378933179633</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2708.5188260028026</v>
+        <v>2708.4991630798745</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2796.2884136283683</v>
+        <v>2796.162338037644</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>2878.075690460146</v>
+        <v>2877.820750055807</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3100.7687054455077</v>
+        <v>3100.646139036962</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3159.044409978367</v>
+        <v>3158.7602415636916</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3267.757705738763</v>
+        <v>3267.23747388804</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>3353.5244732344368</v>
+        <v>3352.716674012003</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>3438.5612942709176</v>
+        <v>3437.5520464514193</v>
       </c>
     </row>
     <row r="104">
@@ -896,7 +896,7 @@
         <v>45809.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3534.4256034712403</v>
+        <v>3532.773841354061</v>
       </c>
     </row>
   </sheetData>
